--- a/alphadata.xlsx
+++ b/alphadata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="855" windowWidth="24915" windowHeight="9750"/>
+    <workbookView xWindow="225" yWindow="915" windowWidth="19440" windowHeight="9690"/>
   </bookViews>
   <sheets>
     <sheet name="alphadata" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -694,11 +694,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="177329664"/>
-        <c:axId val="185336576"/>
+        <c:axId val="188609664"/>
+        <c:axId val="188611200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177329664"/>
+        <c:axId val="188609664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -707,7 +707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185336576"/>
+        <c:crossAx val="188611200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -715,7 +715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185336576"/>
+        <c:axId val="188611200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -726,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177329664"/>
+        <c:crossAx val="188609664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1073,7 +1073,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="A33" sqref="A33:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1600,22 +1600,22 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="B33" s="1">
-        <v>9.5000000000000001E-2</v>
+        <v>0.05</v>
       </c>
       <c r="C33" s="1">
-        <v>0.75</v>
+        <v>0.89</v>
       </c>
       <c r="D33" s="1">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="E33" s="1">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="F33" s="2">
-        <v>2.5000000000000001E-2</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G33" s="1">
         <f>SUM(A33:F33)</f>
